--- a/w2/Kreivald_ListBoxer_Testplan.xlsx
+++ b/w2/Kreivald_ListBoxer_Testplan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Тест</t>
   </si>
@@ -44,13 +44,70 @@
   </si>
   <si>
     <t>Добавление значения без настроек</t>
+  </si>
+  <si>
+    <t>Тест-требования к программе Listboxer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка программы на сохранение списков </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка программы на сохранения файла </t>
+  </si>
+  <si>
+    <t>Проверка работы программы на ввод буквенных символов a-z, A-Z длиною не более 8 символов</t>
+  </si>
+  <si>
+    <t>Проверка работы программы на ввод циферных символов от 0 до 9999 длиною не более 4 символов</t>
+  </si>
+  <si>
+    <t>Проверка программы на "Help" - помощь пользователям</t>
+  </si>
+  <si>
+    <t>Проверка программы на лимит списка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка программы на Открытие файла </t>
+  </si>
+  <si>
+    <t>Проверка программы на работу функций  "Desceding"</t>
+  </si>
+  <si>
+    <t>Проверка программы на работу функций "Ascending"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка программы на закрытие не сохраненных файлов </t>
+  </si>
+  <si>
+    <t>Проверка программы на функцию CUT в меню Edjt</t>
+  </si>
+  <si>
+    <t>Проверка программы на функцию UNDO в меню Edjt</t>
+  </si>
+  <si>
+    <t>Проверка программы на функцию COPY в меню Edjt</t>
+  </si>
+  <si>
+    <t>Проверка программы на функцию PASTE в меню Edjt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка программы на добавление списков </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка программы на очистку списков </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка программы на добавление посторонних символов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка работы программы на ввод циферных и буквенных символов </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,13 +124,55 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -100,10 +199,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -114,8 +215,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -394,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A4:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,6 +544,101 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
